--- a/python-excel-monte-carlo-demo.xlsx
+++ b/python-excel-monte-carlo-demo.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1549C7D8-BDDF-419F-BA32-1028D0F8860A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E702D36-565A-43A8-ABDB-83BDD2250D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{13820FB4-914E-4C4A-8004-8E6C29216297}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{13820FB4-914E-4C4A-8004-8E6C29216297}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="distribution-profits" sheetId="1" r:id="rId1"/>
+    <sheet name="profit-path" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,16 +36,228 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="4">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="4">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>n_simulations = xl(%P2%)
+n_months = xl(%P3%)
+avg_monthly_revenue = xl(%P4%)
+std_dev_revenue = xl(%P5%)
+avg_monthly_costs = xl(%P6%)
+std_dev_costs = xl(%P7%)
+# Random seed for reproducibility
+random_seed = xl(%P8%)
+np.random.seed(random_seed)
+monthly_revenues = np.random.normal(avg_monthly_revenue, 
+    std_dev_revenue, (n_simulations, n_months))
+monthly_costs = np.random.normal(avg_monthly_costs, 
+    std_dev_costs, (n_simulations, n_months))
+annual_profits = monthly_revenues.sum(axis=1) - monthly_costs.sum(axis=1)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>from matplotlib.ticker import FuncFormatter
+# Formatter function for the x-axis
+def currency_formatter(x, pos):
+    return '${:,.0f}'.format(x)
+sns.histplot(annual_profits, kde=True, color='blue', bins=50)
+plt.title('Distribution of Annual Profits')
+plt.xlabel('Annual Profit')
+plt.ylabel('Frequency')
+# Apply currency formatter to the x-axis
+formatter = FuncFormatter(currency_formatter)
+plt.gca().xaxis.set_major_formatter(formatter)</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Formatter function for the x-axis
+def currency_formatter(x, pos):
+    return '${:,.0f}'.format(x)
+# Calculate histogram data
+counts, bins = np.histogram(annual_profits, bins=50)
+# Plotting the histogram with different colors for positive and negative
+fig, ax = plt.subplots(figsize=(10, 6))
+for (low_edge, high_edge), count in zip(zip(bins, bins[1:]), counts):
+    if low_edge &gt;= 0:
+        color = 'blue'
+    else:
+        color = 'red'
+    ax.bar(low_edge, count, width=high_edge-low_edge, color=color, edgecolor='black', align='edge')
+plt.title('Distribution of Annual Profits')
+plt.xlabel('Annual Profit')
+plt.ylabel('Frequency')
+# Apply currency formatter to the x-axis
+formatter = FuncFormatter(currency_formatter)
+ax.xaxis.set_major_formatter(formatter)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>import numpy as np
+import matplotlib.pyplot as plt
+import matplotlib.ticker as ticker
+random_seed = xl(%P2%)
+np.random.seed(random_seed)
+# Define parameters
+initial_sales = xl(%P3%)
+mean_growth_rate = xl(%P4%) / 12  # Monthly mean growth rate (10%% annually)
+std_dev_growth = xl(%P5%) / 12  # Monthly standard deviation (5%% annually)
+n_months = xl(%P6%)  # Number of months to simulate
+n_simulations = xl(%P7%) # Number of simulation runs
+# Initialize an array to store the simulation results
+sales_simulations = np.zeros((n_simulations, n_months))
+# Run simulations
+for sim in range(n_simulations):
+    monthly_growth_rates = np.random.normal(mean_growth_rate, std_dev_growth, n_months)
+    sales = [initial_sales]
+    for month in range(n_months):
+        sales.append(sales[-1] * (1 + monthly_growth_rates[month]))
+    sales_simulations[sim, :] = sales[1:]
+# Custom formatter to convert y axis to currency format
+def currency_formatter(x, pos):
+    return f'${x:,.0f}'
+# Visualize some of the paths
+plt.figure(figsize=(10, 6))
+for sim in range(100):  # Plot the first 100 simulations
+    plt.plot(range(1, n_months + 1), sales_simulations[sim, :], color='blue', alpha=0.2)
+plt.suptitle('Sales Forecast Simulations Over 12 Months', fontsize=16)  # Main title
+plt.title('Visualizing the first 100 simulations', fontsize=12)  # Subtitle
+plt.xlabel('Month')
+plt.ylabel('Sales')
+plt.gca().yaxis.set_major_formatter(ticker.FuncFormatter(currency_formatter))  # Apply currency format</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Number of simulations</t>
+  </si>
+  <si>
+    <t>Number of months</t>
+  </si>
+  <si>
+    <t>Average monthly revenue</t>
+  </si>
+  <si>
+    <t>Standard deviation revenue</t>
+  </si>
+  <si>
+    <t>Average monthly cost</t>
+  </si>
+  <si>
+    <t>Standard deviation cost</t>
+  </si>
+  <si>
+    <t>Random seed</t>
+  </si>
+  <si>
+    <t>Standard deviation growth rate</t>
+  </si>
+  <si>
+    <t>Initial sales</t>
+  </si>
+  <si>
+    <t>Annual growth rate</t>
+  </si>
+  <si>
+    <t>Number of months to simulate</t>
+  </si>
+  <si>
+    <t>Number of simulation runs</t>
+  </si>
+  <si>
+    <t>Random seed for reproducibility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="20"/>
@@ -74,8 +287,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -91,6 +311,330 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1211036</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>765376</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>296540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1AE380-2395-34FB-D53B-B2674363590B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'distribution-profits'!A13"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211036" y="4292052"/>
+          <a:ext cx="5214911" cy="4168774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>337085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>673553</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>247017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1EAD785-B190-0533-2DFF-7ED2953E87B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'distribution-profits'!A21"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3398692"/>
+          <a:ext cx="7436303" cy="5692968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>313764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128256</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>254608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E81D2FB-7142-3F8E-D6AC-D2518DA138AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'profit-path'!A10"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3339352"/>
+          <a:ext cx="7854712" cy="4983490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="11">
+    <v>137957.69497369794</v>
+    <v>48078.175778128614</v>
+    <v>212716.4212718471</v>
+    <v>127236.44431407744</v>
+    <v>135178.76999207115</v>
+    <v t="s">...</v>
+    <v>146352.64105964062</v>
+    <v>181437.28634038562</v>
+    <v>142094.67941240722</v>
+    <v>-5122.9804149826523</v>
+    <v>148777.92730890325</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>ndarray</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'numpy.ndarray'&gt;</v>
+    <v>ndarray</v>
+    <v>[137957.6949737   48078.17577813 212716.42127185 ... 142094.67941241
+  -5122.98041498 148777.9273089 ]</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="3">
+    <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="3">
+    <v>2</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="provider" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="3">
+    <spb s="0">
+      <v>10000</v>
+      <v>1</v>
+      <v>ndarray</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="url" t="s"/>
+    <k n="logoUrl" t="s"/>
+    <k n="description" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,22 +952,216 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="1936" row="11">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{84EEE531-F604-4C72-BF9A-8312211C2D65}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{A4F011F5-CCC4-4E6D-8584-22066EF1A3C2}&quot;}"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EB89DA-E684-43D7-8549-D0220F79B028}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A12" t="e" cm="1" vm="1">
+        <f t="array" ref="A12">_xlfn._xlws.PY(0,1,B2,B3,B4,B5,B6,B7,B9)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A13" t="e" cm="1" vm="2">
+        <f t="array" ref="A13">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A21" t="e" cm="1" vm="3">
+        <f t="array" ref="A21">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0BB1D4-6160-4B9A-9B7F-B39C99FFE419}">
+  <dimension ref="A2:J12"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="1" max="1" width="25.73828125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.92578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A10" t="e" cm="1" vm="4">
+        <f t="array" ref="A10">_xlfn._xlws.PY(3,0,B8,B2,B3,B4,B5,B6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="J12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F011F5-CCC4-4E6D-8584-22066EF1A3C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python-excel-monte-carlo-demo.xlsx
+++ b/python-excel-monte-carlo-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E702D36-565A-43A8-ABDB-83BDD2250D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BC985C-F3D0-4253-BD93-ED6411449A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{13820FB4-914E-4C4A-8004-8E6C29216297}"/>
   </bookViews>
@@ -318,15 +318,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1211036</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>209909</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>230318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>765376</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>296540</xdr:rowOff>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>87772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -354,8 +354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1211036" y="4292052"/>
-          <a:ext cx="5214911" cy="4168774"/>
+          <a:off x="0" y="3632104"/>
+          <a:ext cx="6204857" cy="4960132"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -368,14 +368,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>337085</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>221423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>673553</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>247017</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>131356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -390,7 +390,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'distribution-profits'!A21"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'distribution-profits'!K32"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -403,7 +403,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3398692"/>
+          <a:off x="0" y="3623209"/>
           <a:ext cx="7436303" cy="5692968"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -513,17 +513,17 @@
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
 <arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
   <a r="11">
-    <v>137957.69497369794</v>
-    <v>48078.175778128614</v>
-    <v>212716.4212718471</v>
-    <v>127236.44431407744</v>
-    <v>135178.76999207115</v>
+    <v>65.804881765972823</v>
+    <v>-9170.1294288852951</v>
+    <v>1753.4155235188082</v>
+    <v>2759.2831459048903</v>
+    <v>35.592699124594219</v>
     <v t="s">...</v>
-    <v>146352.64105964062</v>
-    <v>181437.28634038562</v>
-    <v>142094.67941240722</v>
-    <v>-5122.9804149826523</v>
-    <v>148777.92730890325</v>
+    <v>1366.511922901962</v>
+    <v>-322.43345948541537</v>
+    <v>2848.8217318074312</v>
+    <v>-4481.8954147811746</v>
+    <v>76.974266708828509</v>
   </a>
 </arrayData>
 </file>
@@ -541,8 +541,8 @@
   <rv s="2">
     <v>&lt;class 'numpy.ndarray'&gt;</v>
     <v>ndarray</v>
-    <v>[137957.6949737   48078.17577813 212716.42127185 ... 142094.67941241
-  -5122.98041498 148777.9273089 ]</v>
+    <v>[   65.80488177 -9170.12942889  1753.41552352 ...  2848.82173181
+ -4481.89541478    76.97426671]</v>
     <v>1</v>
     <v>2</v>
   </rv>
@@ -954,7 +954,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="1936" row="11">
+  <wetp:taskpane dockstate="right" visibility="0" width="1455" row="11">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -976,7 +976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EB89DA-E684-43D7-8549-D0220F79B028}">
-  <dimension ref="A2:B21"/>
+  <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -1007,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>40000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.85">
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>30000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.85">
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.85">
@@ -1031,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.85">
@@ -1060,9 +1060,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.85">
-      <c r="A21" t="e" cm="1" vm="3">
-        <f t="array" ref="A21">_xlfn._xlws.PY(2,0)</f>
+    <row r="32" spans="11:11" x14ac:dyDescent="0.85">
+      <c r="K32" t="e" cm="1" vm="3">
+        <f t="array" ref="K32">_xlfn._xlws.PY(2,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
